--- a/biology/Botanique/Rosa_sect._Cinnamomeae/Rosa_sect._Cinnamomeae.xlsx
+++ b/biology/Botanique/Rosa_sect._Cinnamomeae/Rosa_sect._Cinnamomeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cinnamomeae
@@ -513,7 +525,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont le plus souvent arbustifs, d'une hauteur de 1 à 4 mètres, à aiguillons droits souvent par paires, à fleurs roses ou rouges en groupes sauf chez  et grands fruits qui persistent après la floraison
 </t>
@@ -544,7 +558,9 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les rosiers Cinnamomeae sont originaires de tout l'hémisphère nord, excepté l'Afrique du Nord:
 les Rosa rugosa originaires d'Asie : Rosa rugosa rugosa, alba, rosea, et rubra et leurs hybrides 'Belle Poitevine', 'Roseraie de l'Haÿ', 'Agnès' et beaucoup d'autres ;
@@ -578,7 +594,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa acicularis Lindl., le rosier aciculaire, rosier arctique,
 Rosa alpina L., voir Rosa pendulina
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
